--- a/biology/Botanique/Hydathode/Hydathode.xlsx
+++ b/biology/Botanique/Hydathode/Hydathode.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un hydathode (du grec hydat-, « eau » et hodos, « voie », terme créé en 1894 par le botaniste autrichien Gottlieb Haberlandt[1]) est un tissu secréteur qui rejette l'eau issue d'un parenchyme aquifère ou d'un vaisseau de xylème par des orifices aménagés entre des cellules épidermiques foliaires[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un hydathode (du grec hydat-, « eau » et hodos, « voie », terme créé en 1894 par le botaniste autrichien Gottlieb Haberlandt) est un tissu secréteur qui rejette l'eau issue d'un parenchyme aquifère ou d'un vaisseau de xylème par des orifices aménagés entre des cellules épidermiques foliaires.
 Cet orifice aquifère ou pore opère notamment lors du phénomène de guttation par exsudation de gouttelettes.
 </t>
         </is>
@@ -512,11 +524,13 @@
           <t>Exemples de plantes possédant des hydatodes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Alchemilla glabra[3]
-Dieffenbachia sp. [3]
-Philodendron sp. [3]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alchemilla glabra
+Dieffenbachia sp. 
+Philodendron sp. </t>
         </is>
       </c>
     </row>
